--- a/acessinputs/Butik.xlsx
+++ b/acessinputs/Butik.xlsx
@@ -19,7 +19,7 @@
     <t>ort</t>
   </si>
   <si>
-    <t>butiksID</t>
+    <t>ButiksID</t>
   </si>
   <si>
     <t>Scheelegatan 3</t>
